--- a/Tocicant.xlsx
+++ b/Tocicant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPython\docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myPython\DetectionSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3718C6-BBD3-4A65-B146-96918253218D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16FF0DA-EEF7-4547-BB79-6A0D7C2A2C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling" sheetId="1" r:id="rId1"/>
@@ -606,22 +606,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="11" width="7.375" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
     <col min="12" max="12" width="7.625" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="7.375" customWidth="1"/>
@@ -1226,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC570702-8FBC-40BC-85D2-DE0EC8655226}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
